--- a/va_facility_data_2025-02-20/Greenbrier County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenbrier%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Greenbrier County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenbrier%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re7533487b057403b8dcdca9ecbc11cb3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R991762344f554084ab0aa5b91c90715f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd3342c714aff492ba0fa43c893c39153"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2689f4c269ca4c0bbad2104f62e18a27"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4eb98701daa24965b9331c13863ba184"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R485f7e9dda7a4640bae4c42f8ba6466e"/>
   </x:sheets>
 </x:workbook>
 </file>
